--- a/Data/aging_stock_summary.xlsx
+++ b/Data/aging_stock_summary.xlsx
@@ -1064,7 +1064,7 @@
       <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="inlineStr"/>

--- a/Data/aging_stock_summary.xlsx
+++ b/Data/aging_stock_summary.xlsx
@@ -810,7 +810,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Zithrox 50ml Powder for Suspension</t>
+          <t>Zithrox 20ml Powder for Suspension</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -821,7 +821,9 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
@@ -829,9 +831,7 @@
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
-      <c r="U5" t="n">
-        <v>344</v>
-      </c>
+      <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
@@ -866,7 +866,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Zithrox 20ml Powder for Suspension</t>
+          <t>Zithrox 50ml Powder for Suspension</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -877,9 +877,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>3</v>
-      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
@@ -887,7 +885,9 @@
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
+      <c r="U6" t="n">
+        <v>344</v>
+      </c>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>

--- a/Data/aging_stock_summary.xlsx
+++ b/Data/aging_stock_summary.xlsx
@@ -810,7 +810,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Zithrox 20ml Powder for Suspension</t>
+          <t>Zithrox 50ml Powder for Suspension</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -821,9 +821,7 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>3</v>
-      </c>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
@@ -831,7 +829,9 @@
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
+      <c r="U5" t="n">
+        <v>344</v>
+      </c>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
@@ -866,7 +866,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Zithrox 50ml Powder for Suspension</t>
+          <t>Zithrox 20ml Powder for Suspension</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -877,7 +877,9 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
@@ -885,9 +887,7 @@
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
-      <c r="U6" t="n">
-        <v>344</v>
-      </c>
+      <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>

--- a/Data/aging_stock_summary.xlsx
+++ b/Data/aging_stock_summary.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -810,7 +810,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Zithrox 50ml Powder for Suspension</t>
+          <t>Zithrox 20ml Powder for Suspension</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -821,7 +821,9 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
@@ -829,9 +831,7 @@
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
-      <c r="U5" t="n">
-        <v>344</v>
-      </c>
+      <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
@@ -866,7 +866,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Zithrox 20ml Powder for Suspension</t>
+          <t>Zithrox 50ml Powder for Suspension</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -877,9 +877,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>3</v>
-      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
@@ -887,7 +885,9 @@
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
+      <c r="U6" t="n">
+        <v>344</v>
+      </c>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>

--- a/Data/aging_stock_summary.xlsx
+++ b/Data/aging_stock_summary.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL12"/>
+  <dimension ref="A1:AL13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -810,7 +810,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Zithrox 20ml Powder for Suspension</t>
+          <t>Zithrox 50ml Powder for Suspension</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -821,9 +821,7 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>3</v>
-      </c>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
@@ -831,7 +829,9 @@
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
+      <c r="U5" t="n">
+        <v>344</v>
+      </c>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
@@ -866,7 +866,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Zithrox 50ml Powder for Suspension</t>
+          <t>Zithrox 20ml Powder for Suspension</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -877,7 +877,9 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
@@ -885,9 +887,7 @@
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
-      <c r="U6" t="n">
-        <v>344</v>
-      </c>
+      <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Osticare</t>
+          <t>Oradin</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Osticare Tablet 30's</t>
+          <t>Oradin 60ml Suspension</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -1101,7 +1101,7 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
@@ -1117,9 +1117,7 @@
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr"/>
@@ -1137,12 +1135,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Within 90 Days</t>
+          <t>Within 60 Days</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Oradin</t>
+          <t>Osticare</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1150,7 +1148,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Oradin 60ml Suspension</t>
+          <t>Osticare Tablet 30's</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -1159,7 +1157,7 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
@@ -1175,7 +1173,9 @@
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
+      <c r="Y11" t="n">
+        <v>1</v>
+      </c>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Toti</t>
+          <t>Oradin</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1206,17 +1206,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Toti 100ml Syrup</t>
+          <t>Oradin 60ml Suspension</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
-      <c r="G12" t="n">
-        <v>14</v>
-      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
@@ -1246,6 +1246,62 @@
       <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="inlineStr"/>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Within 90 Days</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Toti</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Toti 100ml Syrup</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>14</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/aging_stock_summary.xlsx
+++ b/Data/aging_stock_summary.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL13"/>
+  <dimension ref="A1:AL12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -629,7 +629,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Within 15 Days</t>
+          <t>Expired</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -685,12 +685,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Within 15 Days</t>
+          <t>Within 30 Days</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Naprox</t>
+          <t>Flucloxin</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -698,12 +698,14 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Naprox Plus 500mg Tablet - 36's</t>
+          <t>Flucloxin 100ml Dry Suspension</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>22</v>
+      </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -721,9 +723,7 @@
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="n">
-        <v>2</v>
-      </c>
+      <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
@@ -741,12 +741,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Within 15 Days</t>
+          <t>Within 30 Days</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Toperin</t>
+          <t>Flucloxin</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -754,15 +754,15 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Toperin 50mg Tablet - 60's</t>
+          <t>Flucloxin 500mg Capsule 40's</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="n">
-        <v>19</v>
-      </c>
+      <c r="G4" t="n">
+        <v>7</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -779,7 +779,9 @@
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
+      <c r="Y4" t="n">
+        <v>1</v>
+      </c>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
@@ -797,12 +799,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Within 15 Days</t>
+          <t>Within 30 Days</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Zithrox</t>
+          <t>Mebidal</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -810,7 +812,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Zithrox 50ml Powder for Suspension</t>
+          <t>Mebidal Tablet</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -829,9 +831,7 @@
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
-      <c r="U5" t="n">
-        <v>344</v>
-      </c>
+      <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
@@ -839,7 +839,9 @@
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
+      <c r="AC5" t="n">
+        <v>24</v>
+      </c>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr"/>
@@ -853,12 +855,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Within 15 Days</t>
+          <t>Within 30 Days</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Zithrox</t>
+          <t>Naprox</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -866,7 +868,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Zithrox 20ml Powder for Suspension</t>
+          <t>Naprox Plus 500mg Tablet - 36's</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -877,9 +879,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>3</v>
-      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
@@ -891,7 +891,9 @@
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
+      <c r="Y6" t="n">
+        <v>1</v>
+      </c>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
@@ -909,12 +911,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Within 60 Days</t>
+          <t>Within 30 Days</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Flucloxin</t>
+          <t>Osticare</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -922,17 +924,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Flucloxin 100ml Dry Suspension</t>
+          <t>Osticare Tablet 30's</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="n">
-        <v>22</v>
-      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
@@ -947,7 +949,9 @@
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
+      <c r="Y7" t="n">
+        <v>1</v>
+      </c>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
@@ -970,7 +974,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Flucloxin</t>
+          <t>Oradin</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -978,17 +982,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Flucloxin 500mg Capsule 40's</t>
+          <t>Oradin 60ml Suspension</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="n">
-        <v>7</v>
-      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
@@ -1003,9 +1007,7 @@
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr"/>
@@ -1023,12 +1025,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Within 60 Days</t>
+          <t>Within 90 Days</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mebidal</t>
+          <t>Dinafex</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -1036,7 +1038,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Mebidal Tablet</t>
+          <t>Dinafex 50ml Suspension</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -1064,7 +1066,7 @@
       <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="inlineStr"/>
@@ -1079,7 +1081,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Within 60 Days</t>
+          <t>Within 90 Days</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1101,7 +1103,7 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
@@ -1135,12 +1137,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Within 60 Days</t>
+          <t>Within 90 Days</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Osticare</t>
+          <t>Toti</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1148,16 +1150,18 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Osticare Tablet 30's</t>
+          <t>Toti 100ml Syrup</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>14</v>
+      </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
@@ -1173,11 +1177,11 @@
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
+      <c r="AA11" t="n">
+        <v>33</v>
+      </c>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
@@ -1198,7 +1202,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Oradin</t>
+          <t>Zithrox</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1206,7 +1210,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Oradin 60ml Suspension</t>
+          <t>Zithrox 35ml Dry Suspension</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -1215,7 +1219,7 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
@@ -1231,7 +1235,9 @@
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
+      <c r="Y12" t="n">
+        <v>1</v>
+      </c>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr"/>
@@ -1246,62 +1252,6 @@
       <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Within 90 Days</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Toti</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Toti 100ml Syrup</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="n">
-        <v>14</v>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="inlineStr"/>
-      <c r="AH13" t="inlineStr"/>
-      <c r="AI13" t="inlineStr"/>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
-      <c r="AL13" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/aging_stock_summary.xlsx
+++ b/Data/aging_stock_summary.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL12"/>
+  <dimension ref="A1:AL33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -629,12 +629,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Within 15 Days</t>
+          <t>Within 30 Days</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Augment</t>
+          <t>Osticare</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -642,7 +642,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Augment 1.2g IV Injection 1's</t>
+          <t>Osticare Tablet 30's</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -650,7 +650,9 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
@@ -660,14 +662,14 @@
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
-      <c r="T2" t="n">
-        <v>20</v>
-      </c>
+      <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
+      <c r="Y2" t="n">
+        <v>1</v>
+      </c>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
@@ -685,12 +687,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Within 15 Days</t>
+          <t>Within 30 Days</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Naprox</t>
+          <t>Flucloxin</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -698,12 +700,14 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Naprox Plus 500mg Tablet - 36's</t>
+          <t>Flucloxin 100ml Dry Suspension</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>22</v>
+      </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -721,9 +725,7 @@
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="n">
-        <v>2</v>
-      </c>
+      <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
@@ -741,12 +743,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Within 15 Days</t>
+          <t>Within 30 Days</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Toperin</t>
+          <t>Mebidal</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -754,15 +756,13 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Toperin 50mg Tablet - 60's</t>
+          <t>Mebidal Tablet</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="n">
-        <v>19</v>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -783,7 +783,9 @@
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
+      <c r="AC4" t="n">
+        <v>24</v>
+      </c>
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr"/>
@@ -797,12 +799,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Within 15 Days</t>
+          <t>Within 30 Days</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Zithrox</t>
+          <t>Naprox</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -810,7 +812,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Zithrox 50ml Powder for Suspension</t>
+          <t>Naprox Plus 500mg Tablet - 36's</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -829,13 +831,13 @@
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
-      <c r="U5" t="n">
-        <v>344</v>
-      </c>
+      <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
+      <c r="Y5" t="n">
+        <v>1</v>
+      </c>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
@@ -853,12 +855,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Within 15 Days</t>
+          <t>Within 30 Days</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Zithrox</t>
+          <t>Flucloxin</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -866,20 +868,20 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Zithrox 20ml Powder for Suspension</t>
+          <t>Flucloxin 500mg Capsule 40's</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>7</v>
+      </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>3</v>
-      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
@@ -891,7 +893,9 @@
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
+      <c r="Y6" t="n">
+        <v>1</v>
+      </c>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
@@ -914,7 +918,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Flucloxin</t>
+          <t>Oradin</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -922,17 +926,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Flucloxin 100ml Dry Suspension</t>
+          <t>Oradin 60ml Suspension</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="n">
-        <v>22</v>
-      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
@@ -970,7 +974,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Flucloxin</t>
+          <t>Toti</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -978,13 +982,13 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Flucloxin 500mg Capsule 40's</t>
+          <t>Toti 100ml Syrup</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
@@ -1003,9 +1007,7 @@
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr"/>
@@ -1023,12 +1025,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Within 60 Days</t>
+          <t>Within 90 Days</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mebidal</t>
+          <t>Toti</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -1036,7 +1038,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Mebidal Tablet</t>
+          <t>Toti 100ml Syrup</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -1044,7 +1046,9 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
@@ -1061,11 +1065,11 @@
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
+      <c r="AA9" t="n">
+        <v>33</v>
+      </c>
       <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="n">
-        <v>24</v>
-      </c>
+      <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr"/>
@@ -1079,12 +1083,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Within 60 Days</t>
+          <t>Within 90 Days</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Osticare</t>
+          <t>Zithrox</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -1092,7 +1096,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Osticare Tablet 30's</t>
+          <t>Zithrox 35ml Dry Suspension</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -1101,7 +1105,7 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
@@ -1142,7 +1146,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Oradin</t>
+          <t>Dinafex</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1150,7 +1154,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Oradin 60ml Suspension</t>
+          <t>Dinafex 50ml Suspension</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -1158,9 +1162,7 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>3</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
@@ -1179,7 +1181,9 @@
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
+      <c r="AC11" t="n">
+        <v>1</v>
+      </c>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr"/>
@@ -1193,12 +1197,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Within 90 Days</t>
+          <t>Within 180 Days</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Toti</t>
+          <t>Dorenta</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1206,17 +1210,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Toti 100ml Syrup</t>
+          <t>Dorenta 100ml Syrup</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
-      <c r="G12" t="n">
-        <v>14</v>
-      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>42</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
@@ -1246,6 +1250,1218 @@
       <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="inlineStr"/>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Within 180 Days</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Zithrox</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Zithrox 35ml Dry Suspension</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Within 180 Days</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Zithrox</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Zithrox 20ml Powder for Suspension</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>3</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Within 180 Days</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Flucloxin</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Flucloxin 100ml Dry Suspension</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Within 180 Days</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Mebidal</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Mebidal Tablet</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Within 180 Days</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Oradin</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Oradin 60ml Suspension</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="inlineStr"/>
+      <c r="AH17" t="inlineStr"/>
+      <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Within 180 Days</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Toti</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Toti 100ml Syrup</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="inlineStr"/>
+      <c r="AI18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Within 180 Days</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Augment</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Augment 100ml PFS</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="inlineStr"/>
+      <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Within 180 Days</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Naprox</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Naprox Plus 500mg Tablet - 36's</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="n">
+        <v>78</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="inlineStr"/>
+      <c r="AH20" t="inlineStr"/>
+      <c r="AI20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Within 180 Days</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Ontin</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Ontin 60ml Syrup</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="inlineStr"/>
+      <c r="AH21" t="inlineStr"/>
+      <c r="AI21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Within 180 Days</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Augment</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Augment 1.2g IV Injection 1's</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="inlineStr"/>
+      <c r="AH22" t="inlineStr"/>
+      <c r="AI22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Within 180 Days</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Ketonic</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Ketonic 60mg IM Injection</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="inlineStr"/>
+      <c r="AI23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Within 180 Days</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Ketonic</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Ketonic 30mg IM/IV Injection</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="inlineStr"/>
+      <c r="AI24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Within 180 Days</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Flucloxin</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Flucloxin 500mg Capsule 40's</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>10</v>
+      </c>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="inlineStr"/>
+      <c r="AH25" t="inlineStr"/>
+      <c r="AI25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Within 180 Days</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Quinox</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Quinox 100ml IV Infusion</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="n">
+        <v>13</v>
+      </c>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="inlineStr"/>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="inlineStr"/>
+      <c r="AH26" t="inlineStr"/>
+      <c r="AI26" t="inlineStr"/>
+      <c r="AJ26" t="inlineStr"/>
+      <c r="AK26" t="inlineStr"/>
+      <c r="AL26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Within 210 Days</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Etorix</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Etorix 60mg Tablet 50's</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr"/>
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="inlineStr"/>
+      <c r="AH27" t="inlineStr"/>
+      <c r="AI27" t="inlineStr"/>
+      <c r="AJ27" t="inlineStr"/>
+      <c r="AK27" t="inlineStr"/>
+      <c r="AL27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Within 210 Days</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Quinox</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Quinox 100ml IV Infusion</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>23</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="n">
+        <v>10</v>
+      </c>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="n">
+        <v>6</v>
+      </c>
+      <c r="T28" t="n">
+        <v>6</v>
+      </c>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="inlineStr"/>
+      <c r="AH28" t="inlineStr"/>
+      <c r="AI28" t="inlineStr"/>
+      <c r="AJ28" t="inlineStr"/>
+      <c r="AK28" t="inlineStr"/>
+      <c r="AL28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Within 210 Days</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Etorix</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Etorix 90mg Tablet 40's</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="inlineStr"/>
+      <c r="AH29" t="inlineStr"/>
+      <c r="AI29" t="inlineStr"/>
+      <c r="AJ29" t="inlineStr"/>
+      <c r="AK29" t="inlineStr"/>
+      <c r="AL29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Within 210 Days</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Visomox</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Visomox 400mg FC Tablet 10's</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>79</v>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="n">
+        <v>191</v>
+      </c>
+      <c r="H30" t="n">
+        <v>37</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>167</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>215</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
+        <v>90</v>
+      </c>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="n">
+        <v>192</v>
+      </c>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="n">
+        <v>219</v>
+      </c>
+      <c r="V30" t="n">
+        <v>66</v>
+      </c>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr"/>
+      <c r="AF30" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG30" t="inlineStr"/>
+      <c r="AH30" t="inlineStr"/>
+      <c r="AI30" t="inlineStr"/>
+      <c r="AJ30" t="inlineStr"/>
+      <c r="AK30" t="inlineStr"/>
+      <c r="AL30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Within 210 Days</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Ontin</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Ontin 10mg Tablet</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr"/>
+      <c r="AF31" t="inlineStr"/>
+      <c r="AG31" t="inlineStr"/>
+      <c r="AH31" t="inlineStr"/>
+      <c r="AI31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ31" t="inlineStr"/>
+      <c r="AK31" t="inlineStr"/>
+      <c r="AL31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Within 210 Days</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Oradin</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Oradin 60ml Suspension</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="n">
+        <v>17</v>
+      </c>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="inlineStr"/>
+      <c r="AF32" t="inlineStr"/>
+      <c r="AG32" t="inlineStr"/>
+      <c r="AH32" t="inlineStr"/>
+      <c r="AI32" t="inlineStr"/>
+      <c r="AJ32" t="inlineStr"/>
+      <c r="AK32" t="inlineStr"/>
+      <c r="AL32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Within 210 Days</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Mebidal</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Mebidal Tablet</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="n">
+        <v>28</v>
+      </c>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
+      <c r="AC33" t="n">
+        <v>35</v>
+      </c>
+      <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="inlineStr"/>
+      <c r="AF33" t="inlineStr"/>
+      <c r="AG33" t="inlineStr"/>
+      <c r="AH33" t="inlineStr"/>
+      <c r="AI33" t="inlineStr"/>
+      <c r="AJ33" t="inlineStr"/>
+      <c r="AK33" t="inlineStr"/>
+      <c r="AL33" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/aging_stock_summary.xlsx
+++ b/Data/aging_stock_summary.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1667,7 +1667,7 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -2136,9 +2136,7 @@
       <c r="S28" t="n">
         <v>6</v>
       </c>
-      <c r="T28" t="n">
-        <v>6</v>
-      </c>
+      <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr"/>
@@ -2234,40 +2232,40 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="n">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="H30" t="n">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="n">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="n">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="n">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="V30" t="n">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
@@ -2279,7 +2277,7 @@
       <c r="AD30" t="inlineStr"/>
       <c r="AE30" t="inlineStr"/>
       <c r="AF30" t="n">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="AG30" t="inlineStr"/>
       <c r="AH30" t="inlineStr"/>

--- a/Data/aging_stock_summary.xlsx
+++ b/Data/aging_stock_summary.xlsx
@@ -649,15 +649,15 @@
         <v>90</v>
       </c>
       <c r="F2" t="n">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="K2" t="n">
         <v>100</v>
@@ -668,15 +668,13 @@
       <c r="M2" t="n">
         <v>57</v>
       </c>
-      <c r="N2" t="n">
-        <v>5</v>
-      </c>
+      <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="n">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="Q2" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
@@ -684,46 +682,42 @@
       </c>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="n">
-        <v>585</v>
+        <v>567</v>
       </c>
       <c r="V2" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="W2" t="n">
         <v>4</v>
       </c>
       <c r="X2" t="n">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="Y2" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="Z2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AA2" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AB2" t="n">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AC2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AD2" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="AE2" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>14</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="inlineStr"/>
@@ -750,13 +744,13 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H3" t="n">
         <v>172</v>
       </c>
       <c r="I3" t="n">
-        <v>272</v>
+        <v>221</v>
       </c>
       <c r="J3" t="n">
         <v>96</v>
@@ -767,7 +761,7 @@
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O3" t="n">
         <v>39</v>
@@ -777,7 +771,7 @@
         <v>240</v>
       </c>
       <c r="R3" t="n">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="S3" t="n">
         <v>48</v>
@@ -810,11 +804,11 @@
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="n">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AH3" t="inlineStr"/>
       <c r="AI3" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
@@ -914,7 +908,7 @@
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>

--- a/Data/aging_stock_summary.xlsx
+++ b/Data/aging_stock_summary.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL5"/>
+  <dimension ref="A1:AL7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -629,12 +629,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Within 90 Days</t>
+          <t>Within 60 Days</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Freshtear P</t>
+          <t>Edenil</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -642,88 +642,42 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Freshtear P 10ml Ophthalmic Solution</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>90</v>
-      </c>
-      <c r="F2" t="n">
-        <v>123</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="n">
-        <v>33</v>
-      </c>
+          <t>Edenil 20mg Tablet 50's</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="n">
-        <v>33</v>
-      </c>
-      <c r="K2" t="n">
-        <v>100</v>
-      </c>
-      <c r="L2" t="n">
-        <v>19</v>
-      </c>
-      <c r="M2" t="n">
-        <v>57</v>
-      </c>
-      <c r="N2" t="n">
-        <v>5</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
-      <c r="P2" t="n">
-        <v>129</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>31</v>
-      </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
-        <v>37</v>
-      </c>
+      <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
-      <c r="U2" t="n">
-        <v>585</v>
-      </c>
-      <c r="V2" t="n">
-        <v>209</v>
-      </c>
-      <c r="W2" t="n">
-        <v>4</v>
-      </c>
-      <c r="X2" t="n">
-        <v>332</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>109</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>123</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>22</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>14</v>
-      </c>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="inlineStr"/>
@@ -731,12 +685,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Within 180 Days</t>
+          <t>Within 60 Days</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Freshtear P</t>
+          <t>Anapril</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -744,78 +698,42 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Freshtear P 10ml Ophthalmic Solution</t>
+          <t>Anapril 5mg Tablet</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="n">
-        <v>95</v>
-      </c>
-      <c r="H3" t="n">
-        <v>172</v>
-      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>272</v>
-      </c>
-      <c r="J3" t="n">
-        <v>96</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>48</v>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
-        <v>144</v>
-      </c>
-      <c r="O3" t="n">
-        <v>39</v>
-      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="n">
-        <v>240</v>
-      </c>
-      <c r="R3" t="n">
-        <v>142</v>
-      </c>
-      <c r="S3" t="n">
-        <v>48</v>
-      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
-        <v>1248</v>
-      </c>
-      <c r="V3" t="n">
-        <v>288</v>
-      </c>
-      <c r="W3" t="n">
-        <v>103</v>
-      </c>
-      <c r="X3" t="n">
-        <v>432</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>96</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>192</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>336</v>
-      </c>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="n">
-        <v>225</v>
-      </c>
+      <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="n">
-        <v>46</v>
-      </c>
+      <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
       <c r="AL3" t="inlineStr"/>
@@ -823,12 +741,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Within 180 Days</t>
+          <t>Within 60 Days</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Levomax OS</t>
+          <t>Cardobis</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -836,7 +754,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Levomax TS 5ml Ophthalmic Solution</t>
+          <t>Cardobis 2.5 FC Tablet 30's</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -849,9 +767,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="n">
-        <v>13</v>
-      </c>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
@@ -861,7 +777,9 @@
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
+      <c r="Y4" t="n">
+        <v>4</v>
+      </c>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
@@ -879,12 +797,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Within 180 Days</t>
+          <t>Within 90 Days</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dextor OPT</t>
+          <t>Rivarox</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -892,7 +810,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Dextor C 5ml Ophthalmic Solution</t>
+          <t>Rivarox 2.5mg Tablet</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -900,22 +818,20 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>27</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
-      <c r="U5" t="n">
-        <v>19</v>
-      </c>
+      <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
@@ -934,6 +850,118 @@
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="inlineStr"/>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Within 90 Days</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Noficon</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Noficon 200mg Capsule</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Within 180 Days</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Glunor</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Glunor XR Tablet</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>7</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/aging_stock_summary.xlsx
+++ b/Data/aging_stock_summary.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL7"/>
+  <dimension ref="A1:AL24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -629,12 +629,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Within 60 Days</t>
+          <t>Within 30 Days</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Edenil</t>
+          <t>Losectil</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -642,16 +642,16 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Edenil 20mg Tablet 50's</t>
+          <t>Losectil V 20mg Capsule</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
@@ -685,12 +685,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Within 60 Days</t>
+          <t>Within 30 Days</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anapril</t>
+          <t>Losectil</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -698,16 +698,14 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Anapril 5mg Tablet</t>
+          <t>Losectil MUPS 20mg Tablet</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
@@ -723,7 +721,9 @@
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
+      <c r="Y3" t="n">
+        <v>2</v>
+      </c>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
@@ -746,7 +746,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cardobis</t>
+          <t>Losectil</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -754,7 +754,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Cardobis 2.5 FC Tablet 30's</t>
+          <t>Losectil 40mg IV Injection</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -777,11 +777,11 @@
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="n">
-        <v>4</v>
-      </c>
+      <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
+      <c r="AA4" t="n">
+        <v>8</v>
+      </c>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr"/>
@@ -797,12 +797,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Within 90 Days</t>
+          <t>Within 60 Days</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rivarox</t>
+          <t>Topiclo</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -810,7 +810,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Rivarox 2.5mg Tablet</t>
+          <t>Topiclo S 6% 10gm Ointment</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -858,7 +858,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Noficon</t>
+          <t>Esoral</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -866,14 +866,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Noficon 200mg Capsule</t>
+          <t>Esoral 40mg IV Injection</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -886,7 +884,9 @@
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
+      <c r="T6" t="n">
+        <v>14</v>
+      </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
@@ -909,12 +909,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Within 180 Days</t>
+          <t>Within 90 Days</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Glunor</t>
+          <t>Hairgrow</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -922,7 +922,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Glunor XR Tablet</t>
+          <t>Hairgrow 5% Topical Solution 60ml</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -930,9 +930,7 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>7</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
@@ -962,6 +960,984 @@
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="inlineStr"/>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Within 90 Days</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hairgrow</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Hairgrow 2% Topical Solution 60ml</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Within 90 Days</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Losectil</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Losectil V 40mg Capsule</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Within 90 Days</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>H-QUIN</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>H-QUIN 200mg FC Tablet 20's</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Within 180 Days</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Esoral</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Esoral 20mg Capsule 60's</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Within 180 Days</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Orogurd</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Orogurd 15gm Oral Gel</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Within 180 Days</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Esoral</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Esoral 40mg IV Injection</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="n">
+        <v>27</v>
+      </c>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="n">
+        <v>22</v>
+      </c>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Within 180 Days</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Remivir</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Remivir 100mg Lyophilized IV Injection 1's</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="n">
+        <v>19</v>
+      </c>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="n">
+        <v>6</v>
+      </c>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Within 180 Days</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Losectil</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Losectil V 40mg Capsule</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="n">
+        <v>35</v>
+      </c>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Within 180 Days</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Facid</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Facid 10gm BT Cream</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Within 180 Days</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Mycofin</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Mycofin 5gm Cream</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>19</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="inlineStr"/>
+      <c r="AH17" t="inlineStr"/>
+      <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Within 180 Days</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Losectil</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Losectil 40mg Powder for Oral Suspension - 30's</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="inlineStr"/>
+      <c r="AI18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Within 180 Days</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Losectil</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Losectil 40mg IV Injection</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>181</v>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="n">
+        <v>136</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="inlineStr"/>
+      <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Within 180 Days</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Losectil</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Losectil 20mg PFS 50's</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="inlineStr"/>
+      <c r="AH20" t="inlineStr"/>
+      <c r="AI20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Within 180 Days</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Panoral</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Panoral 40mg Tablet</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>18</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>16</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="inlineStr"/>
+      <c r="AH21" t="inlineStr"/>
+      <c r="AI21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Within 210 Days</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Remivir</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Remivir 100mg Lyophilized IV Injection 1's</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>39</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
+        <v>24</v>
+      </c>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>23</v>
+      </c>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="n">
+        <v>116</v>
+      </c>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="inlineStr"/>
+      <c r="AH22" t="inlineStr"/>
+      <c r="AI22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Within 210 Days</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Licnil</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Licnil 117gm Lotion</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="n">
+        <v>19</v>
+      </c>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="inlineStr"/>
+      <c r="AI23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Within 210 Days</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Flucoder</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Flucoder 200mg Capsule - 10's</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="n">
+        <v>21</v>
+      </c>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="inlineStr"/>
+      <c r="AI24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/aging_stock_summary.xlsx
+++ b/Data/aging_stock_summary.xlsx
@@ -1795,11 +1795,9 @@
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
-      <c r="U22" t="n">
-        <v>2</v>
-      </c>
+      <c r="U22" t="inlineStr"/>
       <c r="V22" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
@@ -1813,10 +1811,10 @@
       </c>
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="AE22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="inlineStr"/>

--- a/Data/aging_stock_summary.xlsx
+++ b/Data/aging_stock_summary.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -66,74 +66,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -1400,7 +1332,7 @@
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr"/>
       <c r="AE15" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="inlineStr"/>
@@ -1603,9 +1535,7 @@
       <c r="H19" t="n">
         <v>2</v>
       </c>
-      <c r="I19" t="n">
-        <v>136</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
@@ -1714,7 +1644,7 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
@@ -1744,7 +1674,7 @@
       <c r="AC21" t="inlineStr"/>
       <c r="AD21" t="inlineStr"/>
       <c r="AE21" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="inlineStr"/>
@@ -1778,7 +1708,7 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1789,32 +1719,28 @@
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
-      <c r="V22" t="n">
-        <v>12</v>
-      </c>
+      <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="n">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="n">
         <v>40</v>
       </c>
       <c r="AC22" t="inlineStr"/>
-      <c r="AD22" t="n">
-        <v>20</v>
-      </c>
+      <c r="AD22" t="inlineStr"/>
       <c r="AE22" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="inlineStr"/>
@@ -1917,7 +1843,7 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
